--- a/Ginsei Igo Next Generation/image/Ginsei Igo Next Generation Images Init.xlsx
+++ b/Ginsei Igo Next Generation/image/Ginsei Igo Next Generation Images Init.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="768">
   <si>
     <t>No.</t>
   </si>
@@ -3015,6 +3015,18 @@
   </si>
   <si>
     <t>GK_0texL_01.tga</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文翻译在这里</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于生成图像的函数名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>乱涂乱画区</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3722,15 +3734,16 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45.75" customWidth="1"/>
-    <col min="4" max="4" width="26.25" customWidth="1"/>
-    <col min="5" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.75" customWidth="1"/>
+    <col min="6" max="6" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -3763,9 +3776,15 @@
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="D2" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>767</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
